--- a/readme.xlsx
+++ b/readme.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
   <si>
     <t>center</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,10 @@
       </rPr>
       <t>)露底色）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO(不缩放)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +610,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -651,7 +655,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -812,7 +816,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>

--- a/readme.xlsx
+++ b/readme.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
   <si>
     <t>center</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fitCenter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fitStart</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等比缩放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图片显示完整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不等比缩放(拉伸变形)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,7 +219,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NO(不缩放)</t>
+    <r>
+      <t>图片显示完整(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图片比view大时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES（只缩不放）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片等比缩、放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO(不会缩放)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitCenter(默认)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,35 +639,38 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="66" customWidth="1"/>
-    <col min="4" max="7" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="64.75" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1">
@@ -646,22 +678,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1">
@@ -669,22 +701,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1">
@@ -692,137 +724,137 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="22.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/readme.xlsx
+++ b/readme.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>center</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,15 +58,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>填充满(不露底色)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否居中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <t>YES(右</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下露底色)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>YES（左</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上露底色）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES（不露底色）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>YES（(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>左右</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(上下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)露底色）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES（只缩不放）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片等比缩、放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO(不会缩放)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitCenter(默认)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>试图填充满(</t>
     </r>
     <r>
@@ -78,7 +214,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>通过等比放大或缩小的方式试图填充满(若B为NO则只有上下或左右或只有一边露底色)</t>
+      <t>通过等比缩放的方式试图填充满</t>
     </r>
     <r>
       <rPr>
@@ -96,7 +232,18 @@
   </si>
   <si>
     <r>
-      <t>YES(右</t>
+      <t>图片一定显示完整(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图片比view大时</t>
     </r>
     <r>
       <rPr>
@@ -108,7 +255,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>或</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NO（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图片长宽比等于view长宽比时完整</t>
     </r>
     <r>
       <rPr>
@@ -119,148 +283,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>下露底色)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>YES（左</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上露底色）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES（不露底色）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>YES（(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>左右</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(上下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)露底色）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>图片显示完整(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>图片比view大时</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES（只缩不放）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片等比缩、放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO(不会缩放)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fitCenter(默认)</t>
+      <t>）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,44 +660,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C22"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="64.75" customWidth="1"/>
-    <col min="4" max="4" width="24.25" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" customHeight="1">
+    <row r="1" spans="1:6" ht="22.5" customHeight="1">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1">
+    <row r="2" spans="1:6" ht="22.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,42 +704,36 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1">
+    <row r="3" spans="1:6" ht="22.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1">
+    <row r="4" spans="1:6" ht="22.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -727,114 +741,99 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="22.5" customHeight="1">
+    <row r="6" spans="1:6" ht="22.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="7" spans="1:7" ht="22.5" customHeight="1">
+    <row r="7" spans="1:6" ht="22.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="8" spans="1:7" ht="22.5" customHeight="1">
+    <row r="8" spans="1:6" ht="22.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="9" spans="1:7" ht="22.5" customHeight="1">
+    <row r="9" spans="1:6" ht="22.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -845,15 +844,12 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/readme.xlsx
+++ b/readme.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>center</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,245 +46,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不等比缩放(拉伸变形)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否居中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>YES(右</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>下露底色)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>YES（左</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上露底色）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES（不露底色）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>YES（(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>左右</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(上下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)露底色）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES（只缩不放）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片等比缩、放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO(不会缩放)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fitCenter(默认)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>试图填充满(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通过等比缩放的方式试图填充满</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>图片一定显示完整(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>图片比view大时</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>NO（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>图片长宽比等于view长宽比时完整</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>图片缩放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同fitCenter，居左或上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同fitCenter，居右或下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等比缩、放，直到短边与view边相等（长边可能越界显示不完整）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不缩不放，从左上角绘制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不缩不放，居中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等比缩小，直到长边与view边相等（短边可能露背景）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等比缩、放，直到长边与view边相等，居中（短边可能露背景）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不等比缩、放，不惜变型直到填充满view（不越界不露背景，只变型）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,22 +108,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -660,197 +442,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="33.125" customWidth="1"/>
-    <col min="3" max="3" width="29.375" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="64.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1">
+    <row r="1" spans="1:2" ht="22.5" customHeight="1">
       <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="22.5" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="22.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="22.5" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="22.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="22.5" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="22.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="22.5" customHeight="1">
+    </row>
+    <row r="6" spans="1:2" ht="22.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="22.5" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="22.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="22.5" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="22.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="22.5" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="22.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
